--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81524FC9-84EA-4CE5-A75A-FA439FABC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BEA37-166D-4313-BE8D-6860FFF8B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{850DA530-31E4-4DB8-ABD9-42F586C097A5}"/>
   </bookViews>
@@ -93,15 +93,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,16 +115,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,172 +465,189 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A11:A14"/>
@@ -612,8 +656,6 @@
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BEA37-166D-4313-BE8D-6860FFF8B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C19F4-E19D-4F54-B803-95F65C3355FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{850DA530-31E4-4DB8-ABD9-42F586C097A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>test 1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>tablets</t>
   </si>
   <si>
-    <t>leptops</t>
-  </si>
-  <si>
     <t>test 2</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>test 4</t>
+  </si>
+  <si>
+    <t>color:</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>laptops</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0405E9-4F66-42CF-960E-CE6894428DD0}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -477,185 +486,200 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C19F4-E19D-4F54-B803-95F65C3355FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201127F1-FE52-40E0-8495-7292977FD748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{850DA530-31E4-4DB8-ABD9-42F586C097A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>test 1</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>laptops</t>
+  </si>
+  <si>
+    <t>headphones</t>
   </si>
 </sst>
 </file>
@@ -143,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,29 +480,29 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -511,7 +517,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +532,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -541,7 +547,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -556,82 +562,100 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3">
+        <v>17</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -642,7 +666,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -653,7 +677,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -670,18 +694,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201127F1-FE52-40E0-8495-7292977FD748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787886B-BEF2-4B5E-B4A5-BA7674A76017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{850DA530-31E4-4DB8-ABD9-42F586C097A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
   <si>
     <t>test 1</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>headphones</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>test 6</t>
+  </si>
+  <si>
+    <t>test 7</t>
+  </si>
+  <si>
+    <t>test 8</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>test 10</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -142,11 +160,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +242,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0405E9-4F66-42CF-960E-CE6894428DD0}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,84 +658,58 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>14</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9"/>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -653,57 +723,432 @@
         <v>5</v>
       </c>
       <c r="E12" s="4"/>
+      <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="31">
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569B2A97-CDA3-4AF1-B0EF-C52E3D6468EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB66AEE-B2EE-49D7-9AFF-2C0237B4E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>test 1</t>
   </si>
@@ -164,16 +164,13 @@
   </si>
   <si>
     <t>Ab123456789</t>
-  </si>
-  <si>
-    <t>TURQUOISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +178,6 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -269,11 +260,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,12 +307,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,11 +629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="12.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.09765625" style="1" customWidth="1"/>
@@ -632,7 +642,7 @@
     <col min="13" max="16384" width="12.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -645,7 +655,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -660,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -675,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -690,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -705,12 +715,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -727,7 +737,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -748,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -769,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -790,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -811,10 +821,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -827,7 +837,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -842,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>6</v>
@@ -857,13 +867,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -871,17 +881,17 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -889,28 +899,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
@@ -927,7 +937,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -948,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4" t="s">
         <v>6</v>
@@ -969,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -990,12 +1000,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1018,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="4" t="s">
         <v>3</v>
@@ -1023,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
         <v>6</v>
@@ -1038,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -1053,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -1068,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -1083,10 +1093,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1105,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="4" t="s">
         <v>3</v>
@@ -1104,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -1113,12 +1123,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1145,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
         <v>3</v>
@@ -1150,7 +1160,7 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -1165,7 +1175,7 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="4" t="s">
         <v>10</v>
@@ -1176,10 +1186,10 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>31</v>
       </c>
@@ -1196,7 +1206,7 @@
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
         <v>3</v>
@@ -1217,7 +1227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="4" t="s">
         <v>6</v>
@@ -1238,7 +1248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="F55" s="4" t="s">
         <v>39</v>
@@ -1247,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="F56" s="4" t="s">
         <v>41</v>
@@ -1256,7 +1266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F57" s="4" t="s">
         <v>43</v>
       </c>
@@ -1264,7 +1274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>45</v>
       </c>
@@ -1273,7 +1283,7 @@
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4" t="s">
         <v>28</v>
@@ -1282,7 +1292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="4" t="s">
         <v>30</v>
@@ -1291,7 +1301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
   </sheetData>
@@ -1312,11 +1322,11 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A15:A17"/>

--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -147,10 +147,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -166,6 +166,99 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -539,10 +632,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.19921875" defaultRowHeight="13.8"/>
@@ -550,8 +643,8 @@
     <col width="12.19921875" customWidth="1" style="1" min="1" max="5"/>
     <col width="15.09765625" customWidth="1" style="1" min="6" max="6"/>
     <col width="13.296875" customWidth="1" style="1" min="7" max="7"/>
-    <col width="12.19921875" customWidth="1" style="1" min="8" max="11"/>
-    <col width="12.19921875" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="12.19921875" customWidth="1" style="1" min="8" max="14"/>
+    <col width="12.19921875" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,9 +751,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>passed</t>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -809,9 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-    </row>
+    <row r="13"/>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
@@ -873,13 +964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
+    <row r="18"/>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
@@ -900,521 +985,551 @@
           <t>category:</t>
         </is>
       </c>
-      <c r="C21" s="5" t="n"/>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>speakers</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="n"/>
+      <c r="A22" s="8" t="n"/>
       <c r="B22" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="C22" s="5" t="n"/>
+      <c r="C22" s="5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>color:</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>quantity:</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>test 5</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>product 1</t>
         </is>
       </c>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>product 2</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>product 3</t>
         </is>
       </c>
-      <c r="G25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="G27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>category:</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>tablets</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>category:</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>laptops</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>category:</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>headphones</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="n"/>
-      <c r="B27" s="5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C29" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G29" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="9" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="9" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>quantity:</t>
         </is>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>quantity:</t>
         </is>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>quantity:</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+    <row r="31"/>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>test 6</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>product 1</t>
         </is>
       </c>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>product 2</t>
         </is>
       </c>
-      <c r="E31" s="6" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="n"/>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>category:</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n"/>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>category:</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>ID:</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="n"/>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>ID:</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="n"/>
+      <c r="E33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="n"/>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>quantity 1:</t>
+          <t>category:</t>
         </is>
       </c>
       <c r="C34" s="5" t="n"/>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>quantity 1:</t>
+          <t>category:</t>
         </is>
       </c>
       <c r="E34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="n"/>
+      <c r="A35" s="8" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>quantity 2:</t>
+          <t>ID:</t>
         </is>
       </c>
       <c r="C35" s="5" t="n"/>
       <c r="D35" s="5" t="inlineStr">
         <is>
+          <t>ID:</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n"/>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>quantity 1:</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>quantity 1:</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="n"/>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
           <t>quantity 2:</t>
         </is>
       </c>
-      <c r="E35" s="5" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="C37" s="5" t="n"/>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>quantity 2:</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n"/>
+    </row>
+    <row r="38"/>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>test 7</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>product 1</t>
         </is>
       </c>
-      <c r="C38" s="6" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="n"/>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n"/>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>category:</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>tablets</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="9" t="n"/>
-      <c r="B40" s="5" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="9" t="n"/>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C42" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="inlineStr">
+    <row r="43"/>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>test 8</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>product 1</t>
         </is>
       </c>
-      <c r="C43" s="6" t="n"/>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>new user</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n"/>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>safepay</t>
         </is>
       </c>
-      <c r="G43" s="6" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="G45" s="6" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n"/>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>category:</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="n"/>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>username:</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="n"/>
-      <c r="F44" s="5" t="inlineStr">
-        <is>
-          <t>username:</t>
-        </is>
-      </c>
-      <c r="G44" s="5" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>ID:</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="n"/>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>email:</t>
-        </is>
-      </c>
-      <c r="E45" s="5" t="n"/>
-      <c r="F45" s="5" t="inlineStr">
-        <is>
-          <t>password:</t>
-        </is>
-      </c>
-      <c r="G45" s="5" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="n"/>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>quantity:</t>
         </is>
       </c>
       <c r="C46" s="5" t="n"/>
       <c r="D46" s="5" t="inlineStr">
         <is>
+          <t>username:</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n"/>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>username:</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n"/>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>ID:</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>email:</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n"/>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
           <t>password:</t>
         </is>
       </c>
-      <c r="E46" s="5" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="7" t="inlineStr">
+      <c r="G47" s="5" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n"/>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>quantity:</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>password:</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n"/>
+    </row>
+    <row r="49"/>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>test 9</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>product 1</t>
         </is>
       </c>
-      <c r="C49" s="6" t="n"/>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E49" s="6" t="n"/>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="E51" s="6" t="n"/>
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Credit card</t>
         </is>
       </c>
-      <c r="G49" s="6" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="n"/>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="G51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n"/>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>category:</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>tablets</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>username:</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>Test27</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>card number:</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>123123123123</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="n"/>
-      <c r="B51" s="5" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="8" t="n"/>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>ID:</t>
         </is>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C53" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>password:</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>Test27</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>cvv number:</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="9" t="n"/>
-      <c r="F52" s="5" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="9" t="n"/>
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>month:</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="n"/>
-      <c r="F53" s="5" t="inlineStr">
+    <row r="55">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>year:</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>2026</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" s="5" t="inlineStr">
+    <row r="56">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>cardholder name:</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>shachar</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="7" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>test 10</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C56" s="6" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="n"/>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="C58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n"/>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>username:</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>guy586</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="9" t="n"/>
-      <c r="B58" s="5" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="9" t="n"/>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>password:</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Ab123456789</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="n"/>
-    </row>
+    <row r="61"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A15:A17"/>
@@ -1425,28 +1540,15 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="1">
+      <formula>"V"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Shachar_Guy/ExcelTesting.xlsx
+++ b/Shachar_Guy/ExcelTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusts\PycharmProjects\Project_selenium\Shachar_Guy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70C704-95FF-4A4E-A343-7F738328A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF3341-5917-4A07-9C4E-7254E90BF9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,6 @@
     <t>username:</t>
   </si>
   <si>
-    <t>Guy5539</t>
-  </si>
-  <si>
-    <t>Guyyui87</t>
-  </si>
-  <si>
     <t>email:</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Test30</t>
   </si>
   <si>
-    <t>Aewqw2</t>
-  </si>
-  <si>
     <t>card number:</t>
   </si>
   <si>
@@ -191,6 +182,15 @@
   </si>
   <si>
     <t>Ab123456789</t>
+  </si>
+  <si>
+    <t>Zxcv345</t>
+  </si>
+  <si>
+    <t>Guy55329</t>
+  </si>
+  <si>
+    <t>Guytyui87</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +307,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -836,7 +839,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -850,20 +853,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -878,7 +881,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -893,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -908,7 +911,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -926,24 +929,24 @@
       <c r="A6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -985,7 +988,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1030,20 +1033,20 @@
       <c r="A13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1061,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1076,16 +1079,16 @@
       <c r="A18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1097,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1115,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1124,24 +1127,24 @@
       <c r="A25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1165,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1186,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1207,20 +1210,20 @@
       <c r="A31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1253,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1268,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1283,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1298,16 +1301,16 @@
       <c r="A39"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
@@ -1328,24 +1331,24 @@
       <c r="A44"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,17 +1359,17 @@
         <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -1374,35 +1377,35 @@
         <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1411,27 +1414,27 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6" t="s">
+      <c r="G53" s="8"/>
+      <c r="K53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="K53" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,20 +1445,20 @@
         <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
@@ -1463,72 +1466,72 @@
         <v>17</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="F56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="F56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="F57" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F58" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="7"/>
+      <c r="A60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,6 +1539,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A60:A62"/>
@@ -1552,21 +1570,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
